--- a/LR3/table_1_49.xlsx
+++ b/LR3/table_1_49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B913E5-9C01-4ECE-9E89-EABDB841F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FE51A-3030-4C01-905A-A7FE2D1EB49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2CCB266-B3DC-4C2C-B95A-E78BB9993422}"/>
   </bookViews>
@@ -155,27 +155,15 @@
     <t>Тариф</t>
   </si>
   <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
@@ -186,15 +174,26 @@
   </si>
   <si>
     <t>Макс-я сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -249,9 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,11 +265,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -587,1709 +589,1804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95BF922-1A10-4078-B9FD-5A6A1FB8B42E}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
         <v>49</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <f>49*1.1</f>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="1">
+        <f>A1*1.1</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5">
         <v>44805</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f>E3+J3</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="0">49*1.1</f>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+      <c r="D4" s="1">
+        <f>D3</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>3746.05</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="5">
         <v>44806</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>3746.05</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
+      <c r="D5" s="1">
+        <f t="shared" ref="D4:D34" si="6">49*1.1</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
         <v>3719.1000000000004</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="5">
         <v>44807</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>3719.1000000000004</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="4"/>
+      <c r="C6" s="1">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="1"/>
+      <c r="D6" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>3692.1500000000005</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5">
         <v>44808</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="3"/>
         <v>3692.1500000000005</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="4"/>
+      <c r="C7" s="1">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>3665.2000000000003</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5">
         <v>44809</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="3"/>
         <v>3665.2000000000003</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="4"/>
+      <c r="C8" s="1">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>3638.2500000000005</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5">
         <v>44810</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="3"/>
         <v>3638.2500000000005</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="4"/>
+      <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>3611.3</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5">
         <v>44811</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>10</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="3"/>
         <v>3611.3</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="4"/>
+      <c r="C10" s="1">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>3584.3500000000004</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5">
         <v>44812</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="3"/>
         <v>3584.3500000000004</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="4"/>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>3557.4000000000005</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="3"/>
         <v>3557.4000000000005</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="4"/>
+      <c r="C12" s="1">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
         <v>3530.4500000000003</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5">
         <v>44814</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
-        <v>10</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="3"/>
         <v>3540.4500000000003</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="4"/>
+      <c r="C13" s="1">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
         <v>3503.5000000000005</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5">
         <v>44815</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
-        <v>10</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="3"/>
         <v>3523.5000000000005</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="4"/>
+      <c r="C14" s="1">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
         <v>3476.55</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5">
         <v>44816</v>
       </c>
-      <c r="H14" s="4">
-        <f>H13+1</f>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="3"/>
         <v>3506.55</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="4"/>
+      <c r="C15" s="1">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
         <v>3449.6000000000004</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5">
         <v>44817</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" ref="H15:H38" si="5">H14+1</f>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
-        <v>10</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="3"/>
         <v>3489.6000000000004</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="4"/>
+      <c r="C16" s="1">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
         <v>3422.6500000000005</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5">
         <v>44818</v>
       </c>
-      <c r="H16" s="4">
-        <f t="shared" si="5"/>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
-        <v>10</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="3"/>
         <v>3472.6500000000005</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="4"/>
+      <c r="C17" s="1">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
         <v>3395.7000000000003</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5">
         <v>44819</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" si="5"/>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
-        <v>10</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="3"/>
         <v>3455.7000000000003</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="4"/>
+      <c r="C18" s="1">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
         <v>3368.7500000000005</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5">
         <v>44820</v>
       </c>
-      <c r="H18" s="4">
-        <f t="shared" si="5"/>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
-        <v>10</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="3"/>
         <v>3438.7500000000005</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="4"/>
+      <c r="C19" s="1">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
         <v>3341.8</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5">
         <v>44821</v>
       </c>
-      <c r="H19" s="4">
-        <f t="shared" si="5"/>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
-        <v>10</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="3"/>
         <v>3421.8</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="4"/>
+      <c r="C20" s="1">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
         <v>3314.8500000000004</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5">
         <v>44822</v>
       </c>
-      <c r="H20" s="4">
-        <f t="shared" si="5"/>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
-        <v>10</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="3"/>
         <v>3404.8500000000004</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="4"/>
+      <c r="C21" s="1">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="1"/>
+      <c r="D21" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
         <v>3287.9000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5">
         <v>44823</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
-        <v>10</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="3"/>
         <v>3387.9000000000005</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="4"/>
+      <c r="C22" s="1">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="1"/>
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
         <v>3260.9500000000003</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5">
         <v>44824</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="5"/>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
-        <v>10</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="3"/>
         <v>3370.9500000000003</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="4"/>
+      <c r="C23" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="1"/>
+      <c r="D23" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
         <v>3234.0000000000005</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5">
         <v>44825</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="5"/>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
-        <v>10</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="3"/>
         <v>3354.0000000000005</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" si="4"/>
+      <c r="C24" s="1">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
+      <c r="D24" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
         <v>3207.05</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5">
         <v>44826</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="5"/>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
-        <v>10</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="3"/>
         <v>3337.05</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="4"/>
+      <c r="C25" s="1">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="1"/>
+      <c r="D25" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
         <v>3180.1000000000004</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5">
         <v>44827</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="5"/>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="3"/>
         <v>3320.1000000000004</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" si="4"/>
+      <c r="C26" s="1">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="1"/>
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
         <v>3153.1500000000005</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5">
         <v>44828</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" si="5"/>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
-        <v>10</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="3"/>
         <v>3303.1500000000005</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" si="4"/>
+      <c r="C27" s="1">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="1"/>
+      <c r="D27" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
         <v>3126.2000000000003</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5">
         <v>44829</v>
       </c>
-      <c r="H27" s="4">
-        <f t="shared" si="5"/>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
-        <v>10</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="3"/>
         <v>3286.2000000000003</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" si="4"/>
+      <c r="C28" s="1">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="1"/>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
         <v>3099.2500000000005</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5">
         <v>44830</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="5"/>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
-        <v>10</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="3"/>
         <v>3269.2500000000005</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" si="4"/>
+      <c r="C29" s="1">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="1"/>
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
         <v>3072.3</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5">
         <v>44831</v>
       </c>
-      <c r="H29" s="4">
-        <f t="shared" si="5"/>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
-        <v>10</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="3"/>
         <v>3252.3</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" si="4"/>
+      <c r="C30" s="1">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="1"/>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
         <v>3045.3500000000004</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5">
         <v>44832</v>
       </c>
-      <c r="H30" s="4">
-        <f t="shared" si="5"/>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
-        <v>10</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="3"/>
         <v>3235.3500000000004</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" si="4"/>
+      <c r="C31" s="1">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="1"/>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
         <v>3018.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5">
         <v>44833</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" si="5"/>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
-        <v>10</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="3"/>
         <v>3218.4000000000005</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" si="4"/>
+      <c r="C32" s="1">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="1"/>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
         <v>2991.4500000000003</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5">
         <v>44834</v>
       </c>
-      <c r="H32" s="4">
-        <f t="shared" si="5"/>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
-        <v>10</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="3"/>
         <v>3201.4500000000003</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" si="4"/>
+      <c r="C33" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="1"/>
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
         <v>2964.5000000000005</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5">
         <v>44835</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" si="5"/>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
-        <v>10</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="3"/>
         <v>3184.5000000000005</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" si="4"/>
+      <c r="C34" s="1">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="1"/>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
         <v>2937.55</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5">
         <v>44836</v>
       </c>
-      <c r="H34" s="4">
-        <f t="shared" si="5"/>
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
-        <v>10</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="3"/>
         <v>3167.55</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" si="4"/>
+      <c r="C35" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
-        <f>D34/2</f>
-        <v>26.950000000000003</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="1"/>
-        <v>1455.3000000000002</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="D35" s="1">
+        <f>D3/3</f>
+        <v>17.966666666666669</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>970.2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5">
         <v>44837</v>
       </c>
-      <c r="H35" s="4">
-        <f t="shared" si="5"/>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
-        <v>10</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" si="3"/>
-        <v>1695.3000000000002</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="K35" s="3">
+        <f t="shared" si="3"/>
+        <v>1210.2</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="4"/>
+      <c r="C36" s="1">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
-        <f>D35</f>
-        <v>26.950000000000003</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="1"/>
-        <v>1441.825</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:D38" si="7">D4/3</f>
+        <v>17.966666666666669</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>961.21666666666681</v>
+      </c>
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5">
         <v>44838</v>
       </c>
-      <c r="H36" s="4">
-        <f t="shared" si="5"/>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
-        <v>10</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
-        <f t="shared" si="3"/>
-        <v>1691.825</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="K36" s="3">
+        <f t="shared" si="3"/>
+        <v>1211.2166666666667</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="4"/>
+      <c r="C37" s="1">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" ref="D37:D38" si="6">D36</f>
-        <v>26.950000000000003</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="1"/>
-        <v>1428.3500000000001</v>
-      </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="D37" s="1">
+        <f t="shared" si="7"/>
+        <v>17.966666666666669</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>952.23333333333346</v>
+      </c>
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5">
         <v>44839</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" si="5"/>
+      <c r="H37" s="3">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
-        <v>10</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I37" s="3">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
-        <f t="shared" si="3"/>
-        <v>1688.3500000000001</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="K37" s="3">
+        <f t="shared" si="3"/>
+        <v>1212.2333333333336</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="4"/>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="6"/>
-        <v>26.950000000000003</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="1"/>
-        <v>1414.8750000000002</v>
-      </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="D38" s="1">
+        <f t="shared" si="7"/>
+        <v>17.966666666666669</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>943.25000000000011</v>
+      </c>
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5">
         <v>44840</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" si="5"/>
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
-        <v>10</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
-        <f t="shared" si="3"/>
-        <v>1684.8750000000002</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="9">
-        <f>SUM(K3:K38)</f>
-        <v>116889.15000000001</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="K38" s="3">
+        <f t="shared" si="3"/>
+        <v>1213.25</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
+        <f>FLOOR(114975.7,114975)</f>
+        <v>114975</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
         <f>MAX(E3:E38)</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_49.xlsx
+++ b/LR3/table_1_49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FE51A-3030-4C01-905A-A7FE2D1EB49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2330710A-DB1A-4CCF-864B-702605F1C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2CCB266-B3DC-4C2C-B95A-E78BB9993422}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93B64A79-E294-4038-94CB-367A5277BC90}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,30 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
     <t>Ахмадеев</t>
   </si>
   <si>
@@ -116,6 +140,9 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
     <t>Куропаткин 3</t>
   </si>
   <si>
@@ -140,31 +167,13 @@
     <t xml:space="preserve"> Куропаткин 10</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Куропаткин 11</t>
   </si>
   <si>
     <t>Куропаткин 12</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
+    <t>Общая сумма, руб.</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
@@ -176,16 +185,7 @@
     <t>Макс-я сумма к оплате, руб.</t>
   </si>
   <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб.</t>
+    <t>Пени за 1 день, дней</t>
   </si>
 </sst>
 </file>
@@ -196,6 +196,14 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,14 +226,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,33 +246,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,100 +585,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95BF922-1A10-4078-B9FD-5A6A1FB8B42E}">
-  <dimension ref="A1:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58A51F2-DD4E-4B97-BEC2-95AF0F8DD860}">
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>49</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>A1*1.1</f>
         <v>53.900000000000006</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <f>C3*D3</f>
         <v>3773.0000000000005</v>
       </c>
@@ -691,42 +680,39 @@
       <c r="G3" s="5">
         <v>44805</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <f>E3+J3</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>D3</f>
         <v>53.900000000000006</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>3746.05</v>
       </c>
@@ -736,42 +722,39 @@
       <c r="G4" s="5">
         <v>44806</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>3746.05</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D4:D34" si="6">49*1.1</f>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D34" si="6">49*1.1</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>3719.1000000000004</v>
       </c>
@@ -781,42 +764,39 @@
       <c r="G5" s="5">
         <v>44807</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <f t="shared" si="3"/>
         <v>3719.1000000000004</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>3692.1500000000005</v>
       </c>
@@ -826,42 +806,39 @@
       <c r="G6" s="5">
         <v>44808</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <f t="shared" si="3"/>
         <v>3692.1500000000005</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>3665.2000000000003</v>
       </c>
@@ -871,42 +848,39 @@
       <c r="G7" s="5">
         <v>44809</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <f t="shared" si="3"/>
         <v>3665.2000000000003</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>3638.2500000000005</v>
       </c>
@@ -916,42 +890,39 @@
       <c r="G8" s="5">
         <v>44810</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <f t="shared" si="3"/>
         <v>3638.2500000000005</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>3611.3</v>
       </c>
@@ -961,42 +932,39 @@
       <c r="G9" s="5">
         <v>44811</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <f t="shared" si="3"/>
         <v>3611.3</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>3584.3500000000004</v>
       </c>
@@ -1006,42 +974,39 @@
       <c r="G10" s="5">
         <v>44812</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <f t="shared" si="3"/>
         <v>3584.3500000000004</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>3557.4000000000005</v>
       </c>
@@ -1051,42 +1016,39 @@
       <c r="G11" s="5">
         <v>44813</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <f t="shared" si="3"/>
         <v>3557.4000000000005</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>3530.4500000000003</v>
       </c>
@@ -1096,42 +1058,39 @@
       <c r="G12" s="5">
         <v>44814</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="3"/>
         <v>3540.4500000000003</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>3503.5000000000005</v>
       </c>
@@ -1141,42 +1100,39 @@
       <c r="G13" s="5">
         <v>44815</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <f t="shared" si="3"/>
         <v>3523.5000000000005</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>3476.55</v>
       </c>
@@ -1186,42 +1142,39 @@
       <c r="G14" s="5">
         <v>44816</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <f t="shared" si="3"/>
         <v>3506.55</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>3449.6000000000004</v>
       </c>
@@ -1231,42 +1184,39 @@
       <c r="G15" s="5">
         <v>44817</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <f t="shared" si="3"/>
         <v>3489.6000000000004</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>3422.6500000000005</v>
       </c>
@@ -1276,42 +1226,39 @@
       <c r="G16" s="5">
         <v>44818</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="3">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <f t="shared" si="3"/>
         <v>3472.6500000000005</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>3395.7000000000003</v>
       </c>
@@ -1321,42 +1268,39 @@
       <c r="G17" s="5">
         <v>44819</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <f t="shared" si="3"/>
         <v>3455.7000000000003</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>3368.7500000000005</v>
       </c>
@@ -1366,42 +1310,39 @@
       <c r="G18" s="5">
         <v>44820</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="3">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <f t="shared" si="3"/>
         <v>3438.7500000000005</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>3341.8</v>
       </c>
@@ -1411,42 +1352,39 @@
       <c r="G19" s="5">
         <v>44821</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="3">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <f t="shared" si="3"/>
         <v>3421.8</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>3314.8500000000004</v>
       </c>
@@ -1456,42 +1394,39 @@
       <c r="G20" s="5">
         <v>44822</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="3">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <f t="shared" si="3"/>
         <v>3404.8500000000004</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>3287.9000000000005</v>
       </c>
@@ -1501,42 +1436,39 @@
       <c r="G21" s="5">
         <v>44823</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="3">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <f t="shared" si="3"/>
         <v>3387.9000000000005</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>3260.9500000000003</v>
       </c>
@@ -1546,42 +1478,39 @@
       <c r="G22" s="5">
         <v>44824</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="3">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <f t="shared" si="3"/>
         <v>3370.9500000000003</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>3234.0000000000005</v>
       </c>
@@ -1591,42 +1520,39 @@
       <c r="G23" s="5">
         <v>44825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="3">
-        <v>10</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <f t="shared" si="3"/>
         <v>3354.0000000000005</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>3207.05</v>
       </c>
@@ -1636,42 +1562,39 @@
       <c r="G24" s="5">
         <v>44826</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="3">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <f t="shared" si="3"/>
         <v>3337.05</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>3180.1000000000004</v>
       </c>
@@ -1681,42 +1604,39 @@
       <c r="G25" s="5">
         <v>44827</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="3">
-        <v>10</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <f t="shared" si="3"/>
         <v>3320.1000000000004</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>3153.1500000000005</v>
       </c>
@@ -1726,42 +1646,39 @@
       <c r="G26" s="5">
         <v>44828</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="3">
-        <v>10</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <f t="shared" si="3"/>
         <v>3303.1500000000005</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>3126.2000000000003</v>
       </c>
@@ -1771,42 +1688,39 @@
       <c r="G27" s="5">
         <v>44829</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="3">
-        <v>10</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <f t="shared" si="3"/>
         <v>3286.2000000000003</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    </row>
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>3099.2500000000005</v>
       </c>
@@ -1816,42 +1730,39 @@
       <c r="G28" s="5">
         <v>44830</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="3">
-        <v>10</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <f t="shared" si="3"/>
         <v>3269.2500000000005</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    </row>
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>3072.3</v>
       </c>
@@ -1861,42 +1772,39 @@
       <c r="G29" s="5">
         <v>44831</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <f t="shared" si="3"/>
         <v>3252.3</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    </row>
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>3045.3500000000004</v>
       </c>
@@ -1906,42 +1814,39 @@
       <c r="G30" s="5">
         <v>44832</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="3">
-        <v>10</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <f t="shared" si="3"/>
         <v>3235.3500000000004</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>3018.4000000000005</v>
       </c>
@@ -1951,42 +1856,39 @@
       <c r="G31" s="5">
         <v>44833</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="3">
-        <v>10</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <f t="shared" si="3"/>
         <v>3218.4000000000005</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    </row>
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>2991.4500000000003</v>
       </c>
@@ -1996,42 +1898,39 @@
       <c r="G32" s="5">
         <v>44834</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="3">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <f t="shared" si="3"/>
         <v>3201.4500000000003</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    </row>
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>2964.5000000000005</v>
       </c>
@@ -2041,42 +1940,39 @@
       <c r="G33" s="5">
         <v>44835</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="3">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <f t="shared" si="3"/>
         <v>3184.5000000000005</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    </row>
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>2937.55</v>
       </c>
@@ -2086,42 +1982,39 @@
       <c r="G34" s="5">
         <v>44836</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="3">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
         <v>3167.55</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f>D3/3</f>
         <v>17.966666666666669</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>970.2</v>
       </c>
@@ -2131,42 +2024,39 @@
       <c r="G35" s="5">
         <v>44837</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="3">
-        <v>10</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <f t="shared" si="3"/>
         <v>1210.2</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    </row>
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f t="shared" ref="D36:D38" si="7">D4/3</f>
         <v>17.966666666666669</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>961.21666666666681</v>
       </c>
@@ -2176,42 +2066,39 @@
       <c r="G36" s="5">
         <v>44838</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="3">
-        <v>10</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <f t="shared" si="3"/>
         <v>1211.2166666666667</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    </row>
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f t="shared" si="7"/>
         <v>17.966666666666669</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>952.23333333333346</v>
       </c>
@@ -2221,42 +2108,39 @@
       <c r="G37" s="5">
         <v>44839</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="3">
-        <v>10</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <f t="shared" si="3"/>
         <v>1212.2333333333336</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    </row>
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f t="shared" si="7"/>
         <v>17.966666666666669</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>943.25000000000011</v>
       </c>
@@ -2266,130 +2150,108 @@
       <c r="G38" s="5">
         <v>44840</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="3">
-        <v>10</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <f t="shared" si="3"/>
         <v>1213.25</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="8">
+    </row>
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="6">
         <f>FLOOR(114975.7,114975)</f>
         <v>114975</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="D40" s="3"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1">
         <f>MAX(E3:E38)</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C44" s="7"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_49.xlsx
+++ b/LR3/table_1_49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2330710A-DB1A-4CCF-864B-702605F1C325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A129C2-BF9C-457F-9E2F-65A94A896D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93B64A79-E294-4038-94CB-367A5277BC90}"/>
   </bookViews>
@@ -195,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +215,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -248,15 +241,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -267,9 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,7 +576,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,10 +612,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -646,7 +633,7 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -674,10 +661,10 @@
         <f>C3*D3</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -716,10 +703,10 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>3746.05</v>
       </c>
-      <c r="F4" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -758,10 +745,10 @@
         <f t="shared" si="0"/>
         <v>3719.1000000000004</v>
       </c>
-      <c r="F5" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -800,10 +787,10 @@
         <f t="shared" si="0"/>
         <v>3692.1500000000005</v>
       </c>
-      <c r="F6" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -842,10 +829,10 @@
         <f t="shared" si="0"/>
         <v>3665.2000000000003</v>
       </c>
-      <c r="F7" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -884,10 +871,10 @@
         <f t="shared" si="0"/>
         <v>3638.2500000000005</v>
       </c>
-      <c r="F8" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -926,10 +913,10 @@
         <f t="shared" si="0"/>
         <v>3611.3</v>
       </c>
-      <c r="F9" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -968,10 +955,10 @@
         <f t="shared" si="0"/>
         <v>3584.3500000000004</v>
       </c>
-      <c r="F10" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -1010,10 +997,10 @@
         <f t="shared" si="0"/>
         <v>3557.4000000000005</v>
       </c>
-      <c r="F11" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1052,10 +1039,10 @@
         <f t="shared" si="0"/>
         <v>3530.4500000000003</v>
       </c>
-      <c r="F12" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1094,10 +1081,10 @@
         <f t="shared" si="0"/>
         <v>3503.5000000000005</v>
       </c>
-      <c r="F13" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1136,10 +1123,10 @@
         <f t="shared" si="0"/>
         <v>3476.55</v>
       </c>
-      <c r="F14" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1178,10 +1165,10 @@
         <f t="shared" si="0"/>
         <v>3449.6000000000004</v>
       </c>
-      <c r="F15" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1220,10 +1207,10 @@
         <f t="shared" si="0"/>
         <v>3422.6500000000005</v>
       </c>
-      <c r="F16" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1262,10 +1249,10 @@
         <f t="shared" si="0"/>
         <v>3395.7000000000003</v>
       </c>
-      <c r="F17" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1304,10 +1291,10 @@
         <f t="shared" si="0"/>
         <v>3368.7500000000005</v>
       </c>
-      <c r="F18" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1346,10 +1333,10 @@
         <f t="shared" si="0"/>
         <v>3341.8</v>
       </c>
-      <c r="F19" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1388,10 +1375,10 @@
         <f t="shared" si="0"/>
         <v>3314.8500000000004</v>
       </c>
-      <c r="F20" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1430,10 +1417,10 @@
         <f t="shared" si="0"/>
         <v>3287.9000000000005</v>
       </c>
-      <c r="F21" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1472,10 +1459,10 @@
         <f t="shared" si="0"/>
         <v>3260.9500000000003</v>
       </c>
-      <c r="F22" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1514,10 +1501,10 @@
         <f t="shared" si="0"/>
         <v>3234.0000000000005</v>
       </c>
-      <c r="F23" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1556,10 +1543,10 @@
         <f t="shared" si="0"/>
         <v>3207.05</v>
       </c>
-      <c r="F24" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1598,10 +1585,10 @@
         <f t="shared" si="0"/>
         <v>3180.1000000000004</v>
       </c>
-      <c r="F25" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1640,10 +1627,10 @@
         <f t="shared" si="0"/>
         <v>3153.1500000000005</v>
       </c>
-      <c r="F26" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1682,10 +1669,10 @@
         <f t="shared" si="0"/>
         <v>3126.2000000000003</v>
       </c>
-      <c r="F27" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1724,10 +1711,10 @@
         <f t="shared" si="0"/>
         <v>3099.2500000000005</v>
       </c>
-      <c r="F28" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1766,10 +1753,10 @@
         <f t="shared" si="0"/>
         <v>3072.3</v>
       </c>
-      <c r="F29" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1808,10 +1795,10 @@
         <f t="shared" si="0"/>
         <v>3045.3500000000004</v>
       </c>
-      <c r="F30" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1850,10 +1837,10 @@
         <f t="shared" si="0"/>
         <v>3018.4000000000005</v>
       </c>
-      <c r="F31" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1892,10 +1879,10 @@
         <f t="shared" si="0"/>
         <v>2991.4500000000003</v>
       </c>
-      <c r="F32" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1934,10 +1921,10 @@
         <f t="shared" si="0"/>
         <v>2964.5000000000005</v>
       </c>
-      <c r="F33" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1976,10 +1963,10 @@
         <f t="shared" si="0"/>
         <v>2937.55</v>
       </c>
-      <c r="F34" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2018,10 +2005,10 @@
         <f t="shared" si="0"/>
         <v>970.2</v>
       </c>
-      <c r="F35" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2060,10 +2047,10 @@
         <f t="shared" si="0"/>
         <v>961.21666666666681</v>
       </c>
-      <c r="F36" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2102,10 +2089,10 @@
         <f t="shared" si="0"/>
         <v>952.23333333333346</v>
       </c>
-      <c r="F37" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2144,10 +2131,10 @@
         <f t="shared" si="0"/>
         <v>943.25000000000011</v>
       </c>
-      <c r="F38" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2184,12 +2171,12 @@
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f>FLOOR(114975.7,114975)</f>
         <v>114975</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2217,7 +2204,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="1">
@@ -2235,7 +2222,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="1">
@@ -2253,5 +2240,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_49.xlsx
+++ b/LR3/table_1_49.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E0A30E-8461-4E04-8A65-17F805CBA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -131,15 +122,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -182,16 +164,25 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
@@ -584,10 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -613,37 +606,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -827,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -872,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1187,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1723,30 +1716,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>53.900000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>3126.2000000000003</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1772,7 +1765,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1817,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1862,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1907,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1952,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1997,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2042,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2087,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2098,7 +2091,7 @@
         <v>26.950000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1455.3000000000002</v>
       </c>
       <c r="F35" s="3">
@@ -2132,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2177,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2222,7 +2215,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2261,49 +2254,41 @@
         <v>1684.8750000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>116889</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>3773.0000000000005</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
